--- a/biology/Zoologie/Curculioides/Curculioides.xlsx
+++ b/biology/Zoologie/Curculioides/Curculioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculioides est un genre fossile de ricinules de la famille des Curculioididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes aux États-Unis en Illinois, en Allemagne et en Angleterre. Elles datent du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes aux États-Unis en Illinois, en Allemagne et en Angleterre. Elles datent du Carbonifère.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog (version 20.5, 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog (version 20.5, 2020) :
 † Curculioides adompha Brauckmann, 1987
 † Curculioides ansticii Buckland, 1837
 † Curculioides eltringhami Petrunkevitch, 1949
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Buckland, 1837 : The Bridgewater treatises on the power, wisdom and goodness of God as manifested in the creation. Treatise IV. Geology and mineralogy with reference to natural theology. 2nd Edition. William Pickering, Londres, (en).</t>
         </is>
